--- a/interface/interface_demo/data/cases.xlsx
+++ b/interface/interface_demo/data/cases.xlsx
@@ -34,6 +34,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
@@ -42,14 +50,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -58,6 +58,36 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -78,6 +108,21 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -86,20 +131,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -109,8 +140,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -125,56 +171,10 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,37 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,36 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -496,137 +496,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,6 +640,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,7 +1132,7 @@
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
@@ -1169,7 +1172,7 @@
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
@@ -1209,7 +1212,7 @@
           <t>密码为空</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
@@ -1249,7 +1252,7 @@
           <t>用户名或密码错误</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
@@ -1373,7 +1376,7 @@
           <t>手机号为空，注册失败</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1413,7 +1416,7 @@
           <t>密码为空，注册失败</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1453,7 +1456,7 @@
           <t>手机号已注册</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1493,7 +1496,7 @@
           <t>注册成功</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1610,9 +1613,9 @@
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>/member/login</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -1648,9 +1651,9 @@
           <t>充值成功</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -1668,7 +1671,7 @@
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":10004671,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15814447890","leaveamount":"3480.00","type":"1","regtime":"2021-06-05 17:03:47.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":10004671,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15814447890","leaveamount":"3780.00","type":"1","regtime":"2021-06-05 17:03:47.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1686,9 +1689,9 @@
           <t>充值手机号不存在</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -1724,9 +1727,9 @@
           <t>充值金额不正确</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>/member/recharge</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -1755,10 +1758,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink ref="C3" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId2"/>
-    <hyperlink ref="C4" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId3"/>
-    <hyperlink ref="C5" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" r:id="rId4"/>
+    <hyperlink ref="C2" display="/member/login" r:id="rId1"/>
+    <hyperlink ref="C3" display="/member/recharge" r:id="rId2"/>
+    <hyperlink ref="C4" display="/member/recharge" r:id="rId3"/>
+    <hyperlink ref="C5" display="/member/recharge" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/interface/interface_demo/data/cases.xlsx
+++ b/interface/interface_demo/data/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21731" windowHeight="9120" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21731" windowHeight="9120" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,6 +50,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -57,14 +64,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -79,7 +79,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +94,46 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -108,73 +147,34 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,25 +379,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -418,31 +414,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,17 +459,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -496,137 +496,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,9 +640,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,7 +1059,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4"/>
@@ -1303,8 +1300,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4"/>
@@ -1456,7 +1453,7 @@
           <t>手机号已注册</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
@@ -1496,14 +1493,14 @@
           <t>注册成功</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>{"mobilephone": "18500000002", "pwd": "123456", "regname": "小可爱呀"}</t>
+          <t>{"mobilephone": "register_phone", "pwd": "123456", "regname": "小可爱呀"}</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -1511,14 +1508,19 @@
           <t>post</t>
         </is>
       </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+        </is>
+      </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1544,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1613,7 +1615,7 @@
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1651,7 +1653,7 @@
           <t>充值成功</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -1689,7 +1691,7 @@
           <t>充值手机号不存在</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -1727,7 +1729,7 @@
           <t>充值金额不正确</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>

--- a/interface/interface_demo/data/cases.xlsx
+++ b/interface/interface_demo/data/cases.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21731" windowHeight="9120"/>
+    <workbookView windowWidth="21731" windowHeight="9120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="invest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>case_id</t>
   </si>
@@ -51,7 +52,7 @@
     <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>{"mobilephone": "user", "pwd": "pwd"}</t>
+    <t>{"mobilephone": "#user#", "pwd": "#pwd#"}</t>
   </si>
   <si>
     <t>get</t>
@@ -160,6 +161,42 @@
   </si>
   <si>
     <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "#admin_user#", "pwd": "#admin_pwd#"}</t>
+  </si>
+  <si>
+    <t>加标</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId";"#borrow_member_id#","title":"投资标的名","amount":"10000"}</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"id":"#loan_id#","status":4}</t>
+  </si>
+  <si>
+    <t>投资人登陆</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "#invest_user#", "pwd": "#invest_pwd#"}</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>/member/bidloan</t>
+  </si>
+  <si>
+    <t>{"memberId":"#invest_member_id#","password":"invest_pwd","loanId":"#loan_id#","amount":"100"}</t>
   </si>
 </sst>
 </file>
@@ -188,7 +225,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +233,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,8 +260,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,32 +315,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,50 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -314,21 +366,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -339,187 +376,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +567,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,15 +610,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,46 +629,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +652,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -650,150 +687,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,67 +1186,67 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1111111111111" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.1111111111111" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.1111111111111" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.44444444444444" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="3" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="3" customFormat="1" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
@@ -1216,23 +1256,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="3" customFormat="1" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
@@ -1246,19 +1286,19 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
@@ -1272,19 +1312,19 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
@@ -1326,10 +1366,10 @@
     <col min="6" max="6" width="32.4444444444444" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.2222222222222" style="2" customWidth="1"/>
     <col min="8" max="9" width="10" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="3" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1457,7 @@
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1443,7 +1483,7 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1487,57 +1527,57 @@
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1111111111111" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.8888888888889" style="3" customWidth="1"/>
+    <col min="4" max="4" width="56.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33333333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="3" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="3" customFormat="1" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="2">
@@ -1550,20 +1590,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="3" customFormat="1" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="2">
@@ -1576,20 +1616,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="3" customFormat="1" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="2">
@@ -1602,20 +1642,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="3" customFormat="1" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="2">
@@ -1639,4 +1679,149 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="96.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.6" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/interface/interface_demo/data/cases.xlsx
+++ b/interface/interface_demo/data/cases.xlsx
@@ -1520,12 +1520,12 @@
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>

--- a/interface/interface_demo/data/cases.xlsx
+++ b/interface/interface_demo/data/cases.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21731" windowHeight="9120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="invest" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="login1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -51,22 +52,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -88,24 +74,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,14 +90,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +118,54 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,14 +177,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -186,43 +187,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,139 +349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,17 +378,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,6 +405,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -426,24 +431,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,10 +486,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -497,16 +498,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
@@ -518,13 +519,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
@@ -533,97 +531,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -634,6 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -646,7 +648,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,93 +1064,93 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4"/>
   <cols>
-    <col width="10" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.1111111111111" customWidth="1" style="3" min="2" max="2"/>
-    <col width="29.1111111111111" customWidth="1" style="3" min="3" max="3"/>
-    <col width="54.1111111111111" customWidth="1" style="3" min="4" max="4"/>
-    <col width="5.44444444444444" customWidth="1" style="3" min="5" max="5"/>
-    <col width="24" customWidth="1" style="3" min="6" max="6"/>
-    <col width="10" customWidth="1" style="3" min="7" max="16384"/>
+    <col width="10" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.1111111111111" customWidth="1" style="4" min="2" max="2"/>
+    <col width="23.5555555555556" customWidth="1" style="4" min="3" max="3"/>
+    <col width="54.1111111111111" customWidth="1" style="4" min="4" max="4"/>
+    <col width="5.44444444444444" customWidth="1" style="4" min="5" max="5"/>
+    <col width="33.7777777777778" customWidth="1" style="4" min="6" max="6"/>
+    <col width="10" customWidth="1" style="4" min="7" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" customFormat="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="1" s="4">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>{"mobilephone": "#admin_user#", "pwd": "#admin_pwd#"}</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "15814447890", "pwd": "123456"}</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
         </is>
@@ -1165,31 +1166,31 @@
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" customFormat="1" s="4">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "", "pwd": "123456"}</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
         </is>
@@ -1206,30 +1207,30 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "15814447890", "pwd": ""}</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
         </is>
@@ -1246,30 +1247,30 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>用户名或密码错误</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "15814447890", "pwd": "12345"}</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
         </is>
@@ -1287,10 +1288,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink ref="C3" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
-    <hyperlink ref="C4" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
-    <hyperlink ref="C5" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink ref="C3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink ref="C4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink ref="C5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" display="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1305,233 +1306,466 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4"/>
   <cols>
-    <col width="10" customWidth="1" style="2" min="1" max="1"/>
-    <col width="25.6666666666667" customWidth="1" style="2" min="2" max="2"/>
-    <col width="20.3333333333333" customWidth="1" style="2" min="3" max="3"/>
-    <col width="80.6666666666667" customWidth="1" style="2" min="4" max="4"/>
-    <col width="8" customWidth="1" style="2" min="5" max="5"/>
-    <col width="32.4444444444444" customWidth="1" style="2" min="6" max="6"/>
-    <col width="30.2222222222222" customWidth="1" style="2" min="7" max="7"/>
-    <col width="10" customWidth="1" style="2" min="8" max="9"/>
-    <col width="10" customWidth="1" style="3" min="10" max="16384"/>
+    <col width="10" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.1111111111111" customWidth="1" style="4" min="2" max="2"/>
+    <col width="23.5555555555556" customWidth="1" style="4" min="3" max="3"/>
+    <col width="65" customWidth="1" style="4" min="4" max="4"/>
+    <col width="5.44444444444444" customWidth="1" style="4" min="5" max="5"/>
+    <col width="10.7777777777778" customWidth="1" style="3" min="6" max="6"/>
+    <col width="10" customWidth="1" style="4" min="7" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" customFormat="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="1" s="4">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>手机号为空，注册失败</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>{"mobilephone": "", "pwd": "123456", "regname": "小可爱呀"}</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "#admin_user#", "pwd": "#admin_pwd#"}</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" customFormat="1" s="4">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>手机号为空</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "", "pwd": "123456"}</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>20103</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
         </is>
       </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>密码为空，注册失败</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>{"mobilephone": "18500000000", "pwd": "", "regname": "小可爱呀"}</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
+    <row r="4" customFormat="1" s="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "15814447890", "pwd": ""}</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>20103</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>手机号已注册</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>{"mobilephone": "18500000000", "pwd": "123456", "regname": "小可爱呀"}</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
+    <row r="5" customFormat="1" s="4">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>用户名或密码错误</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>/member/login</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "15814447890", "pwd": "12345"}</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>20111</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>注册成功</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>{"mobilephone": "register_phone", "pwd": "123456", "regname": "小可爱呀"}</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>FAIL</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink ref="C2" display="/member/login" r:id="rId1"/>
+    <hyperlink ref="C3" display="/member/login" r:id="rId2"/>
+    <hyperlink ref="C4" display="/member/login" r:id="rId3"/>
+    <hyperlink ref="C5" display="/member/login" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4"/>
+  <cols>
+    <col width="10" customWidth="1" style="3" min="1" max="1"/>
+    <col width="25.6666666666667" customWidth="1" style="3" min="2" max="2"/>
+    <col width="68.3333333333333" customWidth="1" style="3" min="3" max="3"/>
+    <col width="80.6666666666667" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8" customWidth="1" style="3" min="5" max="5"/>
+    <col width="32.4444444444444" customWidth="1" style="3" min="6" max="6"/>
+    <col width="30.2222222222222" customWidth="1" style="3" min="7" max="7"/>
+    <col width="10" customWidth="1" style="3" min="8" max="9"/>
+    <col width="10" customWidth="1" style="4" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>手机号为空，注册失败</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "", "pwd": "123456", "regname": "小可爱呀"}</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>密码为空，注册失败</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "18500000000", "pwd": "", "regname": "小可爱呀"}</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>手机号已注册</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "18500000000", "pwd": "123456", "regname": "小可爱呀"}</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>注册成功</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>{"mobilephone": "register_phone", "pwd": "123456", "regname": "小可爱呀"}</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/register" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId1"/>
     <hyperlink ref="C3" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId2"/>
     <hyperlink ref="C4" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId3"/>
     <hyperlink ref="C5" display="http://test.lemonban.com/futureloan/mvc/api/member/register" r:id="rId4"/>
@@ -1541,7 +1775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1555,87 +1789,87 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4"/>
   <cols>
-    <col width="10" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.1111111111111" customWidth="1" style="3" min="2" max="2"/>
-    <col width="31.8888888888889" customWidth="1" style="3" min="3" max="3"/>
-    <col width="56.7777777777778" customWidth="1" style="3" min="4" max="4"/>
-    <col width="9.33333333333333" customWidth="1" style="3" min="5" max="5"/>
-    <col width="24" customWidth="1" style="2" min="6" max="6"/>
-    <col width="10" customWidth="1" style="3" min="7" max="16384"/>
+    <col width="10" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.1111111111111" customWidth="1" style="4" min="2" max="2"/>
+    <col width="31.8888888888889" customWidth="1" style="4" min="3" max="3"/>
+    <col width="56.7777777777778" customWidth="1" style="4" min="4" max="4"/>
+    <col width="9.33333333333333" customWidth="1" style="4" min="5" max="5"/>
+    <col width="24" customWidth="1" style="3" min="6" max="6"/>
+    <col width="10" customWidth="1" style="4" min="7" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" customFormat="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="1" s="4">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "15814447890", "pwd": "123456"}</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -1649,31 +1883,31 @@
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" customFormat="1" s="4">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>充值成功</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "15814447890", "amount": "100"}</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="0" t="inlineStr">
@@ -1687,31 +1921,31 @@
         </is>
       </c>
     </row>
-    <row r="4" customFormat="1" s="3">
-      <c r="A4" s="2" t="n">
+    <row r="4" customFormat="1" s="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>充值手机号不存在</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "15815815800", "amount": "100"}</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>20104</v>
       </c>
       <c r="G4" s="0" t="inlineStr">
@@ -1725,31 +1959,31 @@
         </is>
       </c>
     </row>
-    <row r="5" customFormat="1" s="3">
-      <c r="A5" s="2" t="n">
+    <row r="5" customFormat="1" s="4">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>充值金额不正确</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "15814447890", "amount": "-100"}</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>20117</v>
       </c>
       <c r="G5" s="0" t="inlineStr">
@@ -1775,7 +2009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1790,84 +2024,84 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col width="8.888888888888889" customWidth="1" style="1" min="1" max="1"/>
-    <col width="16" customWidth="1" style="6" min="2" max="2"/>
-    <col width="17.8888888888889" customWidth="1" style="6" min="3" max="3"/>
-    <col width="96.2222222222222" customWidth="1" style="6" min="4" max="4"/>
-    <col width="18.1111111111111" customWidth="1" style="6" min="6" max="6"/>
+    <col width="16" customWidth="1" style="2" min="2" max="2"/>
+    <col width="17.8888888888889" customWidth="1" style="2" min="3" max="3"/>
+    <col width="96.2222222222222" customWidth="1" style="2" min="4" max="4"/>
+    <col width="18.1111111111111" customWidth="1" style="2" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1" s="6">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="15.6" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.6" customHeight="1" s="6">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15.6" customHeight="1" s="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "#admin_user#", "pwd": "#admin_pwd#"}</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
         </is>
@@ -1898,8 +2132,8 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.6" customHeight="1" s="6">
-      <c r="A4" s="2" t="n">
+    <row r="4" ht="15.6" customHeight="1" s="2">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1923,7 +2157,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15.6" customHeight="1" s="6">
+    <row r="5" ht="15.6" customHeight="1" s="2">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -1932,12 +2166,12 @@
           <t>投资人登陆</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "#invest_user#", "pwd": "#invest_pwd#"}</t>
         </is>
@@ -1948,8 +2182,8 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15.6" customHeight="1" s="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" ht="15.6" customHeight="1" s="2">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
